--- a/data/trans_dic/P59A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P59A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>3,9; 8,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>5,61; 10,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>4,35; 9,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>2,16; 9,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>7,31; 13,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>8,5; 14,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>10,45; 17,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>4,33; 12,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,1; 9,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>7,53; 11,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,98; 12,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>3,74; 9,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>20,27; 29,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>18,89; 27,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>28,4; 37,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>23,39; 36,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>22,49; 33,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>24,96; 36,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>25,87; 36,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>22,85; 34,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>22,45; 29,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>22,72; 29,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>28,21; 35,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,96; 33,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>6,76; 17,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>16,42; 30,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>19,51; 32,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>23,43; 35,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>6,7; 19,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>23,39; 40,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>21,05; 34,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>26,99; 37,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>8,25; 16,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>21,08; 32,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>21,27; 30,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>26,38; 34,81</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,13%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>11,13; 28,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>12,16; 27,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>8,48; 19,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>8,65; 16,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,0; 6,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>4,02; 15,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>6,06; 15,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>12,6; 20,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>5,78; 14,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>9,55; 19,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>8,43; 16,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>11,46; 17,38</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>5,37; 25,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>5,07; 25,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>9,57; 26,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>8,08; 16,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>1,05; 8,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>5,93; 19,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>1,95; 9,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>4,95; 10,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>3,55; 12,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>6,93; 17,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>6,2; 14,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,09; 12,34</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,8; 7,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>0,73; 6,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>1,65; 8,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>4,22; 10,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,52; 3,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,76; 2,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,19; 1,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,77; 3,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,78; 3,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,19; 4,15</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,43%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,82; 15,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>13,31; 17,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>15,46; 19,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,88; 18,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>8,62; 12,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,24; 16,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,32; 15,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,44; 14,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,65; 13,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,31; 16,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,38; 17,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>13,19; 15,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P59A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,99%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 9,69</t>
+          <t>1,88; 8,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 12,64</t>
+          <t>4,63; 13,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,17</t>
+          <t>3,67; 9,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>27,39%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,39; 36,62</t>
+          <t>23,88; 37,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 34,61</t>
+          <t>12,87; 32,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,96; 33,8</t>
+          <t>19,72; 32,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>30,87%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 35,87</t>
+          <t>23,58; 35,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,99; 37,89</t>
+          <t>27,46; 38,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,38; 34,81</t>
+          <t>26,77; 35,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 16,79</t>
+          <t>8,46; 16,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 20,68</t>
+          <t>13,12; 21,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 17,38</t>
+          <t>11,35; 17,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,9</t>
+          <t>8,16; 17,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,44</t>
+          <t>5,09; 10,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,34</t>
+          <t>7,21; 12,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,22 +1356,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1381,37 +1381,37 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,2</t>
+          <t>0,0; 11,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,09</t>
+          <t>1,63; 13,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,07</t>
+          <t>2,5; 13,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,32</t>
+          <t>4,24; 12,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 1,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,5</t>
+          <t>0,67; 7,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0; 1,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,18</t>
+          <t>1,06; 4,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,86</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,31</t>
+          <t>1,0; 7,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,35</t>
+          <t>0,86; 5,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,15</t>
+          <t>2,68; 6,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,67</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,7</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,62</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 11,39</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,37</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 1,53</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 3,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>11,82; 15,82</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>13,31; 17,23</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>15,46; 19,46</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>13,88; 18,2</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 18,09</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8,62; 12,06</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>12,24; 16,4</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>12,32; 15,97</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>11,44; 14,58</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 14,71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>10,65; 13,38</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>13,31; 16,12</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>14,38; 17,07</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>13,19; 15,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 15,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P59A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,24</t>
+          <t>3,99; 8,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 10,59</t>
+          <t>5,69; 10,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,88</t>
+          <t>4,21; 9,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,79</t>
+          <t>1,99; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 13,18</t>
+          <t>7,27; 13,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,61</t>
+          <t>8,37; 15,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 17,44</t>
+          <t>10,39; 17,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 13,36</t>
+          <t>4,26; 12,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,62</t>
+          <t>6,25; 9,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 11,65</t>
+          <t>7,5; 11,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,3</t>
+          <t>7,85; 12,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,23</t>
+          <t>3,57; 9,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 29,14</t>
+          <t>19,98; 28,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,89; 27,13</t>
+          <t>19,01; 27,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,4; 37,73</t>
+          <t>28,13; 37,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,88; 37,26</t>
+          <t>24,13; 37,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 33,09</t>
+          <t>22,5; 33,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,96; 36,19</t>
+          <t>25,34; 36,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,87; 36,07</t>
+          <t>26,03; 35,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 32,71</t>
+          <t>13,41; 33,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,17</t>
+          <t>22,43; 29,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,72; 29,37</t>
+          <t>22,32; 29,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 35,19</t>
+          <t>28,77; 35,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 32,51</t>
+          <t>19,65; 32,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 17,4</t>
+          <t>6,52; 18,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 30,3</t>
+          <t>15,39; 29,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,51; 32,31</t>
+          <t>18,92; 31,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,58; 35,91</t>
+          <t>22,9; 35,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 19,39</t>
+          <t>7,43; 19,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,39; 40,62</t>
+          <t>23,42; 41,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 34,6</t>
+          <t>20,21; 33,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,46; 38,31</t>
+          <t>27,16; 38,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,18</t>
+          <t>8,3; 17,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,08; 32,32</t>
+          <t>21,74; 33,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 30,32</t>
+          <t>21,6; 30,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,77; 35,18</t>
+          <t>26,51; 35,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 28,43</t>
+          <t>10,14; 29,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,16; 27,33</t>
+          <t>11,53; 26,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 19,19</t>
+          <t>8,21; 19,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 16,68</t>
+          <t>8,32; 16,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,94</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,85</t>
+          <t>4,53; 15,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,62</t>
+          <t>5,77; 15,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 21,26</t>
+          <t>12,84; 21,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,87</t>
+          <t>5,72; 15,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 19,13</t>
+          <t>9,31; 19,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,22</t>
+          <t>8,72; 15,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 17,29</t>
+          <t>11,33; 17,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 25,49</t>
+          <t>5,33; 24,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 25,44</t>
+          <t>5,11; 24,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 26,5</t>
+          <t>9,97; 26,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,16; 17,1</t>
+          <t>7,64; 17,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,83</t>
+          <t>1,04; 8,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 19,42</t>
+          <t>5,98; 18,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 9,43</t>
+          <t>2,09; 9,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 10,6</t>
+          <t>5,12; 10,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 12,2</t>
+          <t>3,66; 12,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 17,87</t>
+          <t>6,94; 17,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,25</t>
+          <t>5,93; 14,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,57</t>
+          <t>7,06; 12,72</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1425,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,59</t>
+          <t>0,0; 11,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,63; 13,65</t>
+          <t>1,67; 14,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,27</t>
+          <t>2,43; 13,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 12,77</t>
+          <t>4,3; 12,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1450,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 7,92</t>
+          <t>0,67; 7,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1460,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,21</t>
+          <t>1,21; 4,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,31</t>
+          <t>1,45; 7,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,26</t>
+          <t>0,85; 4,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,54</t>
+          <t>2,79; 6,35</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,67</t>
+          <t>0,0; 9,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,62</t>
+          <t>0,0; 8,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 11,39</t>
+          <t>3,32; 11,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,53</t>
+          <t>0,22; 1,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,82</t>
+          <t>0,39; 4,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,55</t>
+          <t>1,21; 3,5</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,82</t>
+          <t>11,76; 15,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,23</t>
+          <t>13,58; 17,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,46; 19,46</t>
+          <t>15,55; 19,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,09</t>
+          <t>13,79; 18,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,06</t>
+          <t>8,6; 11,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,24; 16,4</t>
+          <t>12,44; 16,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,97</t>
+          <t>12,43; 15,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,71</t>
+          <t>11,05; 14,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,65; 13,38</t>
+          <t>10,55; 13,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,31; 16,12</t>
+          <t>13,34; 16,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,07</t>
+          <t>14,36; 17,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,14; 15,91</t>
+          <t>13,02; 16,07</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive actualmente en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26662</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33734</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25825</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18564</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>42922</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43409</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48940</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23406</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>69584</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>77143</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74765</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41970</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18474; 38205</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24307; 45699</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16670; 36386</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7925; 34826</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31496; 57105</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32090; 57619</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37175; 61813</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12840; 37448</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56022; 88607</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60795; 95451</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59169; 92169</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24982; 63077</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>106944</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>104752</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>126243</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>104731</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>77766</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>85619</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>98180</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87627</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>184711</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>190371</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>224424</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>192358</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88303; 126135</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86854; 124870</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>108585; 144525</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>83122; 128409</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62774; 94614</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>70833; 102068</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>82689; 114041</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>47995; 119444</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>161749; 212946</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>164368; 214097</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>202452; 252183</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>137993; 229309</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16077</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37069</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>54995</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>65814</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15767</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45060</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48630</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>62378</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31845</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82129</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>103625</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>128192</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9004; 25202</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25267; 48893</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41896; 69095</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51494; 79983</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9409; 24842</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33350; 58993</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36980; 61111</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51719; 73738</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21990; 45222</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66648; 101456</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>87369; 123361</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>110079; 147046</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16848</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25722</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23570</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30524</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11279</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17752</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34121</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18830</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37001</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41322</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64646</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9111; 26156</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16117; 36960</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15184; 35231</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21325; 42369</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6702</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5964; 20747</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10039; 27496</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25843; 43166</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11031; 29056</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>25265; 51667</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31275; 57021</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>51838; 79090</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7076</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7332</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17607</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11527</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8593</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15096</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10016</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18859</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26200</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38721</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2809; 13019</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3139; 15295</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10666; 28402</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14869; 33592</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>947; 7914</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6119; 19245</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3581; 16811</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10359; 21689</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5268; 17438</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11359; 29203</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16501; 39236</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>28048; 50513</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2974</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4863</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8420</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6722</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4863</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12849</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4265</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>950; 7962</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1860; 10382</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4674; 13438</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>972; 10684</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2020</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2199; 8659</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5080</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2926; 14152</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1892; 10990</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8122; 18476</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6828</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>8768</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6147</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2077</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7840</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3382; 11656</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2191</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7401</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10409</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>694; 4617</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6644</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7392</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1313; 13544</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5083; 14633</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>176279</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>211582</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>255263</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>258506</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>141378</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>202740</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>224197</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>228998</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>317657</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>414321</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>479461</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>487504</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>151556; 204574</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>187924; 245821</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>227296; 286069</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>224744; 295040</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>118904; 164076</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>177179; 229468</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>197988; 253637</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>193613; 261573</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>281649; 352236</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>374364; 452819</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>438777; 521238</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>440373; 543579</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>